--- a/hebrewOutputs/hebrew82Comperation_3_Common_alpha=0.04.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_3_Common_alpha=0.04.xlsx
@@ -46,30 +46,36 @@
     <t>מה נשמע?</t>
   </si>
   <si>
+    <t>?med</t>
+  </si>
+  <si>
     <t>בסדר.</t>
   </si>
   <si>
+    <t>gives-med</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> יש לנו שם מכתב שחרור?</t>
+  </si>
+  <si>
+    <t>[?]med</t>
+  </si>
+  <si>
+    <t>אנחנו רוצים ללכת.</t>
+  </si>
+  <si>
+    <t>gives-other</t>
+  </si>
+  <si>
+    <t>כבר, כבר תשבי.</t>
+  </si>
+  <si>
+    <t>orient</t>
+  </si>
+  <si>
     <t>r/o</t>
   </si>
   <si>
-    <t xml:space="preserve"> יש לנו שם מכתב שחרור?</t>
-  </si>
-  <si>
-    <t>[?]med</t>
-  </si>
-  <si>
-    <t>אנחנו רוצים ללכת.</t>
-  </si>
-  <si>
-    <t>gives-other</t>
-  </si>
-  <si>
-    <t>כבר, כבר תשבי.</t>
-  </si>
-  <si>
-    <t>orient</t>
-  </si>
-  <si>
     <t>אנחנו כבר כל כך הרבה.</t>
   </si>
   <si>
@@ -85,9 +91,6 @@
     <t>?bid</t>
   </si>
   <si>
-    <t>?med</t>
-  </si>
-  <si>
     <t>דוקטור דוק.</t>
   </si>
   <si>
@@ -121,9 +124,6 @@
     <t>הילד כבר נראה בסדר</t>
   </si>
   <si>
-    <t>gives-med</t>
-  </si>
-  <si>
     <t>(לא ברור)</t>
   </si>
   <si>
@@ -241,6 +241,9 @@
     <t>gives-l/s</t>
   </si>
   <si>
+    <t>concern</t>
+  </si>
+  <si>
     <t xml:space="preserve">יש, יש שני סוגים של סכרת </t>
   </si>
   <si>
@@ -254,9 +257,6 @@
   </si>
   <si>
     <t>מתמודדים איתה, קשה להתמודד אתה.</t>
-  </si>
-  <si>
-    <t>concern</t>
   </si>
   <si>
     <t>זה קשה זה נכון.</t>
@@ -903,7 +903,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -917,7 +917,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -925,13 +925,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -939,10 +939,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -953,10 +953,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -967,13 +967,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -981,10 +981,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -995,13 +995,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -1009,13 +1009,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -1023,13 +1023,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
@@ -1037,13 +1037,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
@@ -1051,7 +1051,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
@@ -1065,13 +1065,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -1093,13 +1093,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
@@ -1107,13 +1107,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
@@ -1121,13 +1121,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
@@ -1135,10 +1135,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
         <v>32</v>
-      </c>
-      <c r="B20" t="s">
-        <v>31</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
@@ -1149,13 +1149,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
@@ -1163,13 +1163,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
@@ -1183,7 +1183,7 @@
         <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
@@ -1225,7 +1225,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
@@ -1236,7 +1236,7 @@
         <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
@@ -1253,7 +1253,7 @@
         <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
@@ -1264,7 +1264,7 @@
         <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C29" t="s">
         <v>6</v>
@@ -1278,7 +1278,7 @@
         <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
@@ -1292,7 +1292,7 @@
         <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
@@ -1309,7 +1309,7 @@
         <v>47</v>
       </c>
       <c r="C32" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
@@ -1323,7 +1323,7 @@
         <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
@@ -1334,10 +1334,10 @@
         <v>50</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
@@ -1348,10 +1348,10 @@
         <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
@@ -1362,10 +1362,10 @@
         <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D36" t="s">
         <v>8</v>
@@ -1376,7 +1376,7 @@
         <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C37" t="s">
         <v>6</v>
@@ -1390,10 +1390,10 @@
         <v>54</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D38" t="s">
         <v>8</v>
@@ -1404,10 +1404,10 @@
         <v>55</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D39" t="s">
         <v>8</v>
@@ -1418,10 +1418,10 @@
         <v>56</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D40" t="s">
         <v>8</v>
@@ -1432,10 +1432,10 @@
         <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C41" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D41" t="s">
         <v>8</v>
@@ -1446,10 +1446,10 @@
         <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D42" t="s">
         <v>8</v>
@@ -1463,7 +1463,7 @@
         <v>37</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D43" t="s">
         <v>7</v>
@@ -1474,7 +1474,7 @@
         <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C44" t="s">
         <v>60</v>
@@ -1488,10 +1488,10 @@
         <v>61</v>
       </c>
       <c r="B45" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C45" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D45" t="s">
         <v>8</v>
@@ -1502,10 +1502,10 @@
         <v>62</v>
       </c>
       <c r="B46" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C46" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D46" t="s">
         <v>8</v>
@@ -1516,10 +1516,10 @@
         <v>63</v>
       </c>
       <c r="B47" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D47" t="s">
         <v>8</v>
@@ -1530,10 +1530,10 @@
         <v>64</v>
       </c>
       <c r="B48" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D48" t="s">
         <v>8</v>
@@ -1544,10 +1544,10 @@
         <v>65</v>
       </c>
       <c r="B49" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C49" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D49" t="s">
         <v>8</v>
@@ -1558,7 +1558,7 @@
         <v>66</v>
       </c>
       <c r="B50" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C50" t="s">
         <v>6</v>
@@ -1572,7 +1572,7 @@
         <v>67</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C51" t="s">
         <v>6</v>
@@ -1586,10 +1586,10 @@
         <v>68</v>
       </c>
       <c r="B52" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D52" t="s">
         <v>8</v>
@@ -1600,10 +1600,10 @@
         <v>69</v>
       </c>
       <c r="B53" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C53" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D53" t="s">
         <v>8</v>
@@ -1614,10 +1614,10 @@
         <v>70</v>
       </c>
       <c r="B54" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C54" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D54" t="s">
         <v>8</v>
@@ -1628,7 +1628,7 @@
         <v>71</v>
       </c>
       <c r="B55" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C55" t="s">
         <v>6</v>
@@ -1645,7 +1645,7 @@
         <v>49</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="D56" t="s">
         <v>8</v>
@@ -1659,7 +1659,7 @@
         <v>74</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="D57" t="s">
         <v>7</v>
@@ -1667,13 +1667,13 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B58" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D58" t="s">
         <v>8</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B59" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C59" t="s">
         <v>6</v>
@@ -1695,10 +1695,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B60" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C60" t="s">
         <v>6</v>
@@ -1709,13 +1709,13 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C61" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D61" t="s">
         <v>8</v>
@@ -1723,10 +1723,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B62" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C62" t="s">
         <v>6</v>
@@ -1743,7 +1743,7 @@
         <v>82</v>
       </c>
       <c r="C63" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="D63" t="s">
         <v>8</v>
@@ -1754,10 +1754,10 @@
         <v>83</v>
       </c>
       <c r="B64" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C64" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="D64" t="s">
         <v>7</v>
@@ -1771,7 +1771,7 @@
         <v>82</v>
       </c>
       <c r="C65" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="D65" t="s">
         <v>8</v>
@@ -1782,10 +1782,10 @@
         <v>85</v>
       </c>
       <c r="B66" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C66" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="D66" t="s">
         <v>7</v>
@@ -1799,7 +1799,7 @@
         <v>74</v>
       </c>
       <c r="C67" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D67" t="s">
         <v>7</v>
@@ -1810,10 +1810,10 @@
         <v>87</v>
       </c>
       <c r="B68" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C68" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
         <v>7</v>
@@ -1824,7 +1824,7 @@
         <v>88</v>
       </c>
       <c r="B69" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C69" t="s">
         <v>6</v>
@@ -1841,7 +1841,7 @@
         <v>37</v>
       </c>
       <c r="C70" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D70" t="s">
         <v>7</v>
@@ -1855,7 +1855,7 @@
         <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D71" t="s">
         <v>8</v>
@@ -1869,7 +1869,7 @@
         <v>37</v>
       </c>
       <c r="C72" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D72" t="s">
         <v>7</v>
@@ -1883,7 +1883,7 @@
         <v>49</v>
       </c>
       <c r="C73" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="D73" t="s">
         <v>8</v>
@@ -1897,7 +1897,7 @@
         <v>93</v>
       </c>
       <c r="C74" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D74" t="s">
         <v>8</v>
@@ -1925,7 +1925,7 @@
         <v>96</v>
       </c>
       <c r="C76" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D76" t="s">
         <v>8</v>
@@ -1953,7 +1953,7 @@
         <v>99</v>
       </c>
       <c r="C78" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
         <v>7</v>
@@ -1981,7 +1981,7 @@
         <v>60</v>
       </c>
       <c r="C80" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D80" t="s">
         <v>7</v>
@@ -1995,7 +1995,7 @@
         <v>96</v>
       </c>
       <c r="C81" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D81" t="s">
         <v>8</v>
@@ -2006,10 +2006,10 @@
         <v>103</v>
       </c>
       <c r="B82" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C82" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D82" t="s">
         <v>8</v>
@@ -2020,10 +2020,10 @@
         <v>104</v>
       </c>
       <c r="B83" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C83" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D83" t="s">
         <v>8</v>
@@ -2034,10 +2034,10 @@
         <v>105</v>
       </c>
       <c r="B84" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C84" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D84" t="s">
         <v>8</v>
@@ -2048,10 +2048,10 @@
         <v>106</v>
       </c>
       <c r="B85" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C85" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D85" t="s">
         <v>8</v>
@@ -2065,7 +2065,7 @@
         <v>82</v>
       </c>
       <c r="C86" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D86" t="s">
         <v>8</v>
@@ -2076,10 +2076,10 @@
         <v>108</v>
       </c>
       <c r="B87" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C87" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D87" t="s">
         <v>8</v>
@@ -2090,10 +2090,10 @@
         <v>109</v>
       </c>
       <c r="B88" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C88" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D88" t="s">
         <v>8</v>
@@ -2104,7 +2104,7 @@
         <v>110</v>
       </c>
       <c r="B89" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C89" t="s">
         <v>6</v>
@@ -2118,7 +2118,7 @@
         <v>111</v>
       </c>
       <c r="B90" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C90" t="s">
         <v>6</v>
@@ -2132,10 +2132,10 @@
         <v>112</v>
       </c>
       <c r="B91" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C91" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D91" t="s">
         <v>7</v>
@@ -2146,10 +2146,10 @@
         <v>113</v>
       </c>
       <c r="B92" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C92" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D92" t="s">
         <v>8</v>
@@ -2163,7 +2163,7 @@
         <v>37</v>
       </c>
       <c r="C93" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D93" t="s">
         <v>7</v>
@@ -2174,10 +2174,10 @@
         <v>114</v>
       </c>
       <c r="B94" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C94" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D94" t="s">
         <v>8</v>
@@ -2188,10 +2188,10 @@
         <v>115</v>
       </c>
       <c r="B95" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C95" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D95" t="s">
         <v>8</v>
@@ -2202,7 +2202,7 @@
         <v>116</v>
       </c>
       <c r="B96" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C96" t="s">
         <v>6</v>
@@ -2216,10 +2216,10 @@
         <v>117</v>
       </c>
       <c r="B97" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C97" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D97" t="s">
         <v>8</v>
@@ -2230,7 +2230,7 @@
         <v>118</v>
       </c>
       <c r="B98" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C98" t="s">
         <v>6</v>
@@ -2244,7 +2244,7 @@
         <v>119</v>
       </c>
       <c r="B99" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C99" t="s">
         <v>6</v>
@@ -2275,7 +2275,7 @@
         <v>49</v>
       </c>
       <c r="C101" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="D101" t="s">
         <v>8</v>
@@ -2303,7 +2303,7 @@
         <v>37</v>
       </c>
       <c r="C103" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D103" t="s">
         <v>7</v>
@@ -2314,10 +2314,10 @@
         <v>124</v>
       </c>
       <c r="B104" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C104" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D104" t="s">
         <v>7</v>
@@ -2328,10 +2328,10 @@
         <v>125</v>
       </c>
       <c r="B105" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C105" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D105" t="s">
         <v>7</v>
@@ -2342,10 +2342,10 @@
         <v>126</v>
       </c>
       <c r="B106" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C106" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D106" t="s">
         <v>8</v>
@@ -2356,10 +2356,10 @@
         <v>127</v>
       </c>
       <c r="B107" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C107" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D107" t="s">
         <v>8</v>
@@ -2370,10 +2370,10 @@
         <v>128</v>
       </c>
       <c r="B108" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C108" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D108" t="s">
         <v>8</v>
@@ -2387,7 +2387,7 @@
         <v>37</v>
       </c>
       <c r="C109" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D109" t="s">
         <v>7</v>
@@ -2398,10 +2398,10 @@
         <v>129</v>
       </c>
       <c r="B110" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C110" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D110" t="s">
         <v>8</v>
@@ -2415,7 +2415,7 @@
         <v>37</v>
       </c>
       <c r="C111" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D111" t="s">
         <v>7</v>
@@ -2429,7 +2429,7 @@
         <v>131</v>
       </c>
       <c r="C112" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D112" t="s">
         <v>8</v>
@@ -2440,10 +2440,10 @@
         <v>132</v>
       </c>
       <c r="B113" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C113" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D113" t="s">
         <v>8</v>
@@ -2454,10 +2454,10 @@
         <v>133</v>
       </c>
       <c r="B114" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C114" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D114" t="s">
         <v>8</v>
@@ -2468,10 +2468,10 @@
         <v>134</v>
       </c>
       <c r="B115" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C115" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D115" t="s">
         <v>8</v>
@@ -2482,10 +2482,10 @@
         <v>135</v>
       </c>
       <c r="B116" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C116" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D116" t="s">
         <v>8</v>
@@ -2496,10 +2496,10 @@
         <v>136</v>
       </c>
       <c r="B117" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C117" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D117" t="s">
         <v>8</v>
@@ -2513,7 +2513,7 @@
         <v>138</v>
       </c>
       <c r="C118" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D118" t="s">
         <v>7</v>
@@ -2541,7 +2541,7 @@
         <v>93</v>
       </c>
       <c r="C120" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D120" t="s">
         <v>8</v>
@@ -2555,7 +2555,7 @@
         <v>93</v>
       </c>
       <c r="C121" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D121" t="s">
         <v>8</v>
@@ -2580,7 +2580,7 @@
         <v>143</v>
       </c>
       <c r="B123" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C123" t="s">
         <v>6</v>
@@ -2594,10 +2594,10 @@
         <v>144</v>
       </c>
       <c r="B124" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C124" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D124" t="s">
         <v>8</v>
@@ -2608,10 +2608,10 @@
         <v>145</v>
       </c>
       <c r="B125" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C125" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="D125" t="s">
         <v>8</v>
@@ -2622,10 +2622,10 @@
         <v>146</v>
       </c>
       <c r="B126" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C126" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D126" t="s">
         <v>8</v>
@@ -2636,10 +2636,10 @@
         <v>147</v>
       </c>
       <c r="B127" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C127" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D127" t="s">
         <v>8</v>
@@ -2664,10 +2664,10 @@
         <v>149</v>
       </c>
       <c r="B129" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C129" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D129" t="s">
         <v>8</v>
@@ -2681,7 +2681,7 @@
         <v>99</v>
       </c>
       <c r="C130" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D130" t="s">
         <v>7</v>
@@ -2695,7 +2695,7 @@
         <v>49</v>
       </c>
       <c r="C131" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D131" t="s">
         <v>8</v>
@@ -2723,7 +2723,7 @@
         <v>93</v>
       </c>
       <c r="C133" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D133" t="s">
         <v>8</v>
@@ -2751,7 +2751,7 @@
         <v>155</v>
       </c>
       <c r="C135" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D135" t="s">
         <v>8</v>
@@ -2762,10 +2762,10 @@
         <v>144</v>
       </c>
       <c r="B136" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C136" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D136" t="s">
         <v>8</v>
@@ -2776,7 +2776,7 @@
         <v>157</v>
       </c>
       <c r="B137" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C137" t="s">
         <v>6</v>
@@ -2793,7 +2793,7 @@
         <v>37</v>
       </c>
       <c r="C138" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D138" t="s">
         <v>8</v>
@@ -2846,7 +2846,7 @@
         <v>162</v>
       </c>
       <c r="B142" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C142" t="s">
         <v>6</v>
@@ -2863,7 +2863,7 @@
         <v>131</v>
       </c>
       <c r="C143" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D143" t="s">
         <v>8</v>
@@ -2888,10 +2888,10 @@
         <v>165</v>
       </c>
       <c r="B145" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C145" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D145" t="s">
         <v>8</v>
@@ -2905,7 +2905,7 @@
         <v>93</v>
       </c>
       <c r="C146" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D146" t="s">
         <v>8</v>
@@ -2933,7 +2933,7 @@
         <v>37</v>
       </c>
       <c r="C148" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D148" t="s">
         <v>7</v>
@@ -2944,7 +2944,7 @@
         <v>169</v>
       </c>
       <c r="B149" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C149" t="s">
         <v>6</v>
@@ -2958,10 +2958,10 @@
         <v>170</v>
       </c>
       <c r="B150" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C150" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D150" t="s">
         <v>8</v>
@@ -2972,10 +2972,10 @@
         <v>171</v>
       </c>
       <c r="B151" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C151" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D151" t="s">
         <v>7</v>
